--- a/results/I3_N5_M3_T30_C150_DepLowerLeft_s0_res.xlsx
+++ b/results/I3_N5_M3_T30_C150_DepLowerLeft_s0_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>784.2340765197274</v>
+        <v>126.4410498000232</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.165999889373779</v>
+        <v>0.3819999694824219</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>56.62407651846029</v>
+        <v>50.44104980002316</v>
       </c>
     </row>
     <row r="7">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>578.5000000012672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>149.11</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -769,7 +769,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -874,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20.63858450874014</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -890,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -898,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>24.57220118279979</v>
+        <v>22.73386173754268</v>
       </c>
     </row>
     <row r="7">
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>161.2050000000328</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>163.905000000019</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>173.0100000000204</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>162.9050000000298</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11">
@@ -1117,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>173.590000000033</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
@@ -1128,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>106.2600000000075</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
@@ -1139,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>109.8650000000089</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14">
@@ -1150,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>107.7250000000076</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15">
@@ -1161,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>111.9600000000082</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">
@@ -1172,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>110.95</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17">
@@ -1183,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>93.03000000000964</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -1194,7 +1194,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>87.77500000000691</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19">
@@ -1205,7 +1205,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>97.17000000000735</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
@@ -1216,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>85.99500000000978</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
@@ -1227,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>97.74000000001058</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22">
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>185.7350000000491</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23">
@@ -1249,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>184.2650000000593</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24">
@@ -1260,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>198.1250000000577</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25">
@@ -1271,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>195.6050000000517</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26">
@@ -1282,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>190.9050000000588</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27">
@@ -1293,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>77.2200000000139</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
@@ -1304,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>87.34500000001572</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29">
@@ -1315,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>91.48000000001775</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30">
@@ -1326,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>91.86000000001332</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
@@ -1337,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>90.41500000001906</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32">
@@ -1348,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>161.2050000000552</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33">
@@ -1359,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>163.9050000000415</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34">
@@ -1370,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>173.0100000000429</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35">
@@ -1381,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>162.9050000000541</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36">
@@ -1392,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>173.5900000000573</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37">
@@ -1403,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>185.7350000000725</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38">
@@ -1414,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>184.2650000000849</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39">
@@ -1425,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>198.125000000083</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40">
@@ -1436,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>195.6050000000771</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41">
@@ -1447,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>190.9050000000809</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42">
@@ -1458,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>106.260000000033</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43">
@@ -1469,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>109.8650000000326</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44">
@@ -1480,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>107.7250000000295</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45">
@@ -1491,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>111.9600000000301</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46">
@@ -1502,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>110.95</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1549,7 +1549,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.20500000005416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1560,7 +1560,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>13.90500000004045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1571,7 +1571,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>23.01000000004183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1582,7 +1582,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>12.90500000005306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1593,7 +1593,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>23.59000000005631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1604,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>35.73500000007039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1615,7 +1615,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>34.26500000008286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1626,7 +1626,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>48.12500000008095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1637,7 +1637,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>45.60500000007505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1648,7 +1648,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>40.90500000007853</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1805,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>5.14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1816,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>12.2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1827,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>8.99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1838,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>13.25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1849,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>11.68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1860,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>6.515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1871,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>4.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1882,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1893,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1904,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2028,7 +2028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2053,116 +2053,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
